--- a/lin_R1_by_R2 (1.1 by 1)100.xlsx
+++ b/lin_R1_by_R2 (1.1 by 1)100.xlsx
@@ -242,6 +242,95 @@
         <v>-0.07360499311897249</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>154.48998511866566</v>
+      </c>
+      <c r="B3" t="n">
+        <v>194.49136813359092</v>
+      </c>
+      <c r="C3" t="n">
+        <v>244.85012571799192</v>
+      </c>
+      <c r="D3" t="n">
+        <v>308.2480453473766</v>
+      </c>
+      <c r="E3" t="n">
+        <v>388.0612974236932</v>
+      </c>
+      <c r="F3" t="n">
+        <v>488.5402286605017</v>
+      </c>
+      <c r="G3" t="n">
+        <v>615.0357085444388</v>
+      </c>
+      <c r="H3" t="n">
+        <v>774.284082647425</v>
+      </c>
+      <c r="I3" t="n">
+        <v>974.7659075925785</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1227.157571618902</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1544.8998511866564</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1944.9136813359091</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2448.5012571799193</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3082.480453473766</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3880.6129742369317</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4885.402286605017</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>6150.357085444388</v>
+      </c>
+      <c r="R3" t="n">
+        <v>7742.84082647425</v>
+      </c>
+      <c r="S3" t="n">
+        <v>9747.659075925785</v>
+      </c>
+      <c r="T3" t="n">
+        <v>12271.57571618902</v>
+      </c>
+      <c r="U3" t="n">
+        <v>15448.998511866565</v>
+      </c>
+      <c r="V3" t="n">
+        <v>19449.13681335909</v>
+      </c>
+      <c r="W3" t="n">
+        <v>24485.01257179919</v>
+      </c>
+      <c r="X3" t="n">
+        <v>30824.804534737657</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>38806.12974236932</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>48854.022866050174</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>61503.570854443875</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>77428.4082647425</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>97476.59075925784</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -431,6 +520,95 @@
       </c>
       <c r="AC2" t="n">
         <v>-0.073605292371942</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>154.48998511866566</v>
+      </c>
+      <c r="B3" t="n">
+        <v>194.49136813359092</v>
+      </c>
+      <c r="C3" t="n">
+        <v>244.85012571799192</v>
+      </c>
+      <c r="D3" t="n">
+        <v>308.2480453473766</v>
+      </c>
+      <c r="E3" t="n">
+        <v>388.0612974236932</v>
+      </c>
+      <c r="F3" t="n">
+        <v>488.5402286605017</v>
+      </c>
+      <c r="G3" t="n">
+        <v>615.0357085444388</v>
+      </c>
+      <c r="H3" t="n">
+        <v>774.284082647425</v>
+      </c>
+      <c r="I3" t="n">
+        <v>974.7659075925785</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1227.157571618902</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1544.8998511866564</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1944.9136813359091</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2448.5012571799193</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3082.480453473766</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3880.6129742369317</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4885.402286605017</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>6150.357085444388</v>
+      </c>
+      <c r="R3" t="n">
+        <v>7742.84082647425</v>
+      </c>
+      <c r="S3" t="n">
+        <v>9747.659075925785</v>
+      </c>
+      <c r="T3" t="n">
+        <v>12271.57571618902</v>
+      </c>
+      <c r="U3" t="n">
+        <v>15448.998511866565</v>
+      </c>
+      <c r="V3" t="n">
+        <v>19449.13681335909</v>
+      </c>
+      <c r="W3" t="n">
+        <v>24485.01257179919</v>
+      </c>
+      <c r="X3" t="n">
+        <v>30824.804534737657</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>38806.12974236932</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>48854.022866050174</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>61503.570854443875</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>77428.4082647425</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>97476.59075925784</v>
       </c>
     </row>
   </sheetData>
@@ -624,6 +802,95 @@
         <v>-0.07360533512419373</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>154.48998511866566</v>
+      </c>
+      <c r="B3" t="n">
+        <v>194.49136813359092</v>
+      </c>
+      <c r="C3" t="n">
+        <v>244.85012571799192</v>
+      </c>
+      <c r="D3" t="n">
+        <v>308.2480453473766</v>
+      </c>
+      <c r="E3" t="n">
+        <v>388.0612974236932</v>
+      </c>
+      <c r="F3" t="n">
+        <v>488.5402286605017</v>
+      </c>
+      <c r="G3" t="n">
+        <v>615.0357085444388</v>
+      </c>
+      <c r="H3" t="n">
+        <v>774.284082647425</v>
+      </c>
+      <c r="I3" t="n">
+        <v>974.7659075925785</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1227.157571618902</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1544.8998511866564</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1944.9136813359091</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2448.5012571799193</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3082.480453473766</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3880.6129742369317</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4885.402286605017</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>6150.357085444388</v>
+      </c>
+      <c r="R3" t="n">
+        <v>7742.84082647425</v>
+      </c>
+      <c r="S3" t="n">
+        <v>9747.659075925785</v>
+      </c>
+      <c r="T3" t="n">
+        <v>12271.57571618902</v>
+      </c>
+      <c r="U3" t="n">
+        <v>15448.998511866565</v>
+      </c>
+      <c r="V3" t="n">
+        <v>19449.13681335909</v>
+      </c>
+      <c r="W3" t="n">
+        <v>24485.01257179919</v>
+      </c>
+      <c r="X3" t="n">
+        <v>30824.804534737657</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>38806.12974236932</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>48854.022866050174</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>61503.570854443875</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>77428.4082647425</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>97476.59075925784</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -815,6 +1082,95 @@
         <v>-0.07360499310474498</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>154.48998511866566</v>
+      </c>
+      <c r="B3" t="n">
+        <v>194.49136813359092</v>
+      </c>
+      <c r="C3" t="n">
+        <v>244.85012571799192</v>
+      </c>
+      <c r="D3" t="n">
+        <v>308.2480453473766</v>
+      </c>
+      <c r="E3" t="n">
+        <v>388.0612974236932</v>
+      </c>
+      <c r="F3" t="n">
+        <v>488.5402286605017</v>
+      </c>
+      <c r="G3" t="n">
+        <v>615.0357085444388</v>
+      </c>
+      <c r="H3" t="n">
+        <v>774.284082647425</v>
+      </c>
+      <c r="I3" t="n">
+        <v>974.7659075925785</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1227.157571618902</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1544.8998511866564</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1944.9136813359091</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2448.5012571799193</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3082.480453473766</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3880.6129742369317</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4885.402286605017</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>6150.357085444388</v>
+      </c>
+      <c r="R3" t="n">
+        <v>7742.84082647425</v>
+      </c>
+      <c r="S3" t="n">
+        <v>9747.659075925785</v>
+      </c>
+      <c r="T3" t="n">
+        <v>12271.57571618902</v>
+      </c>
+      <c r="U3" t="n">
+        <v>15448.998511866565</v>
+      </c>
+      <c r="V3" t="n">
+        <v>19449.13681335909</v>
+      </c>
+      <c r="W3" t="n">
+        <v>24485.01257179919</v>
+      </c>
+      <c r="X3" t="n">
+        <v>30824.804534737657</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>38806.12974236932</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>48854.022866050174</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>61503.570854443875</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>77428.4082647425</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>97476.59075925784</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/lin_R1_by_R2 (1.1 by 1)100.xlsx
+++ b/lin_R1_by_R2 (1.1 by 1)100.xlsx
@@ -66,76 +66,76 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.7146100517248918</v>
+        <v>0.7020262725768294</v>
       </c>
       <c r="B1" t="n">
-        <v>0.7134158293285514</v>
+        <v>0.6938954180204799</v>
       </c>
       <c r="C1" t="n">
-        <v>0.7115360823872714</v>
+        <v>0.6816107872201566</v>
       </c>
       <c r="D1" t="n">
-        <v>0.7085890145213203</v>
+        <v>0.6635175841440445</v>
       </c>
       <c r="E1" t="n">
-        <v>0.703997209614454</v>
+        <v>0.6378414145592117</v>
       </c>
       <c r="F1" t="n">
-        <v>0.696911476506176</v>
+        <v>0.6032482942617996</v>
       </c>
       <c r="G1" t="n">
-        <v>0.6861383066504828</v>
+        <v>0.5597244809465183</v>
       </c>
       <c r="H1" t="n">
-        <v>0.6701218368069511</v>
+        <v>0.5093415233309064</v>
       </c>
       <c r="I1" t="n">
-        <v>0.6470836112509323</v>
+        <v>0.45611342376740877</v>
       </c>
       <c r="J1" t="n">
-        <v>0.6154622847412089</v>
+        <v>0.4045902337733281</v>
       </c>
       <c r="K1" t="n">
-        <v>0.5747129079667879</v>
+        <v>0.3580359632107134</v>
       </c>
       <c r="L1" t="n">
-        <v>0.5261875405738231</v>
+        <v>0.31755004292511085</v>
       </c>
       <c r="M1" t="n">
-        <v>0.4733692431099458</v>
+        <v>0.2825460008337229</v>
       </c>
       <c r="N1" t="n">
-        <v>0.4208433399087957</v>
+        <v>0.2518582891176321</v>
       </c>
       <c r="O1" t="n">
-        <v>0.37245381608003963</v>
+        <v>0.22456562498593094</v>
       </c>
       <c r="P1" t="n">
-        <v>0.3300069145689902</v>
+        <v>0.2001729776576295</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.2933499475327731</v>
+        <v>0.1784008771386148</v>
       </c>
       <c r="R1" t="n">
-        <v>0.2613870660714158</v>
+        <v>0.15899673359569585</v>
       </c>
       <c r="S1" t="n">
-        <v>0.23306747401130332</v>
+        <v>0.14170557215633528</v>
       </c>
       <c r="T1" t="n">
-        <v>0.20777154953668064</v>
+        <v>0.12629503575986184</v>
       </c>
       <c r="U1" t="n">
-        <v>0.18517811533061782</v>
+        <v>0.11256036197261164</v>
       </c>
       <c r="V1" t="n">
-        <v>0.16503567337229058</v>
+        <v>0.10031938503143821</v>
       </c>
       <c r="W1" t="n">
-        <v>0.14708727072799102</v>
+        <v>0.08940964563767588</v>
       </c>
       <c r="X1" t="n">
-        <v>0.13109150504772651</v>
+        <v>0.07968635952211368</v>
       </c>
       <c r="Y1" t="n">
         <v>0.1168352070080777</v>
@@ -155,76 +155,76 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-3.149140075391029</v>
+        <v>-1.2362505451372086</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.516243320528176</v>
+        <v>-1.019365599517948</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.0172254651110646</v>
+        <v>-0.8547025846054507</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.6253955848469852</v>
+        <v>-0.7318064692231347</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.3196618538028864</v>
+        <v>-0.641389050821146</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.0833135520225148</v>
+        <v>-0.5746284575899065</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.9029683414406623</v>
+        <v>-0.522990804695869</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.7676059136625131</v>
+        <v>-0.4789057946093274</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.6676511569839948</v>
+        <v>-0.43708285120356116</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.5941843796721371</v>
+        <v>-0.3954251640779442</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.5385493126638716</v>
+        <v>-0.35454172345357926</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.4927363124117654</v>
+        <v>-0.31612231971343413</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.45057019042897006</v>
+        <v>-0.2814174215285628</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.40889635707331384</v>
+        <v>-0.2506845034944097</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.36759220136112614</v>
+        <v>-0.2235021689033541</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.3281952461403433</v>
+        <v>-0.1993197065644029</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.29221201346053194</v>
+        <v>-0.17773514210737326</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.26021829481016434</v>
+        <v>-0.1584708001291753</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.2319497828569493</v>
+        <v>-0.1412877071305485</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.2068487228731823</v>
+        <v>-0.12596330055956495</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.18445731036452934</v>
+        <v>-0.11229706011748838</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.16446874647753584</v>
+        <v>-0.10011036980129272</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.14663709201462763</v>
+        <v>-0.0892437130090685</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.1307340011309588</v>
+        <v>-0.07955462114070411</v>
       </c>
       <c r="Y2" t="n">
         <v>-0.11655146035043701</v>
@@ -244,76 +244,76 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>154.48998511866566</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>194.49136813359092</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>244.85012571799192</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>308.2480453473766</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>388.0612974236932</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>488.5402286605017</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>615.0357085444388</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>774.284082647425</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>974.7659075925785</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>1227.157571618902</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>1544.8998511866564</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>1944.9136813359091</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>2448.5012571799193</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>3082.480453473766</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>3880.6129742369317</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>4885.402286605017</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>6150.357085444388</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>7742.84082647425</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>9747.659075925785</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>12271.57571618902</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>15448.998511866565</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>19449.13681335909</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>24485.01257179919</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
-        <v>30824.804534737657</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y3" t="n">
         <v>38806.12974236932</v>
@@ -346,76 +346,76 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.7146617895860276</v>
+        <v>0.7022611046849765</v>
       </c>
       <c r="B1" t="n">
-        <v>0.7134936705927156</v>
+        <v>0.694184582310792</v>
       </c>
       <c r="C1" t="n">
-        <v>0.711650139447921</v>
+        <v>0.681939305406778</v>
       </c>
       <c r="D1" t="n">
-        <v>0.7087500286444923</v>
+        <v>0.6638572910232295</v>
       </c>
       <c r="E1" t="n">
-        <v>0.7042134405680832</v>
+        <v>0.6381550198100807</v>
       </c>
       <c r="F1" t="n">
-        <v>0.6971840252230251</v>
+        <v>0.6034975098388365</v>
       </c>
       <c r="G1" t="n">
-        <v>0.6864565692510518</v>
+        <v>0.5598810143698172</v>
       </c>
       <c r="H1" t="n">
-        <v>0.6704616927750389</v>
+        <v>0.5093980580549375</v>
       </c>
       <c r="I1" t="n">
-        <v>0.6474100125994745</v>
+        <v>0.4560886643057639</v>
       </c>
       <c r="J1" t="n">
-        <v>0.6157361682875514</v>
+        <v>0.4045221866340931</v>
       </c>
       <c r="K1" t="n">
-        <v>0.5749014509410663</v>
+        <v>0.35796464214540125</v>
       </c>
       <c r="L1" t="n">
-        <v>0.5262756500297177</v>
+        <v>0.31749992059359367</v>
       </c>
       <c r="M1" t="n">
-        <v>0.47336729667955346</v>
+        <v>0.2825201571166113</v>
       </c>
       <c r="N1" t="n">
-        <v>0.4207846137261572</v>
+        <v>0.2518468663841129</v>
       </c>
       <c r="O1" t="n">
-        <v>0.3723798586389129</v>
+        <v>0.22455891047535026</v>
       </c>
       <c r="P1" t="n">
-        <v>0.3299486151378332</v>
+        <v>0.2001673820230315</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.2933169784825982</v>
+        <v>0.178396467838131</v>
       </c>
       <c r="R1" t="n">
-        <v>0.2613722657192667</v>
+        <v>0.15899364405504243</v>
       </c>
       <c r="S1" t="n">
-        <v>0.2330599294628149</v>
+        <v>0.14170342674008582</v>
       </c>
       <c r="T1" t="n">
-        <v>0.2077656652836635</v>
+        <v>0.1262935162359886</v>
       </c>
       <c r="U1" t="n">
-        <v>0.18517327142332465</v>
+        <v>0.11255928634671433</v>
       </c>
       <c r="V1" t="n">
-        <v>0.16503218651601517</v>
+        <v>0.10031862451394558</v>
       </c>
       <c r="W1" t="n">
-        <v>0.14708486373926682</v>
+        <v>0.08940910771298174</v>
       </c>
       <c r="X1" t="n">
-        <v>0.13108980695067105</v>
+        <v>0.07968597900972539</v>
       </c>
       <c r="Y1" t="n">
         <v>0.11683400366378292</v>
@@ -435,76 +435,76 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-3.1490245774935053</v>
+        <v>-1.236111392058171</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.5161088123451205</v>
+        <v>-1.0192670498458145</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.0170754446497483</v>
+        <v>-0.8546696340972718</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.6252390677063908</v>
+        <v>-0.73185742850986</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.3195149580551861</v>
+        <v>-0.6415281965565609</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.0831990201077748</v>
+        <v>-0.5748412258439688</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.902911663894467</v>
+        <v>-0.5232437654518101</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.767628430164778</v>
+        <v>-0.47915387489227945</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.6677623798427962</v>
+        <v>-0.43728402673100325</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.5943761286144098</v>
+        <v>-0.39555672384613383</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.5387938697072621</v>
+        <v>-0.3546077724930985</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.4929910753008564</v>
+        <v>-0.31614641310921027</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.4507902488445944</v>
+        <v>-0.2814254744401826</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.4090512957632137</v>
+        <v>-0.25069118379992256</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.3676775184967095</v>
+        <v>-0.2235098530445551</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.3282298326547969</v>
+        <v>-0.19932619028363233</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.2922229597700746</v>
+        <v>-0.1777395604475972</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.26022468346236916</v>
+        <v>-0.1584737799975344</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.2319573381267258</v>
+        <v>-0.14128982309778165</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.20685580347616928</v>
+        <v>-0.12596480657011977</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.18446236284419418</v>
+        <v>-0.11229812540777427</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.1644721083605589</v>
+        <v>-0.10011112392766745</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.14663945037581624</v>
+        <v>-0.08924424691699752</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.1307356844557718</v>
+        <v>-0.07955499912244349</v>
       </c>
       <c r="Y2" t="n">
         <v>-0.11655265200106898</v>
@@ -524,76 +524,76 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>154.48998511866566</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>194.49136813359092</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>244.85012571799192</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>308.2480453473766</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>388.0612974236932</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>488.5402286605017</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>615.0357085444388</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>774.284082647425</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>974.7659075925785</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>1227.157571618902</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>1544.8998511866564</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>1944.9136813359091</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>2448.5012571799193</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>3082.480453473766</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>3880.6129742369317</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>4885.402286605017</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>6150.357085444388</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>7742.84082647425</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>9747.659075925785</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>12271.57571618902</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>15448.998511866565</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>19449.13681335909</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>24485.01257179919</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
-        <v>30824.804534737657</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y3" t="n">
         <v>38806.12974236932</v>
@@ -626,76 +626,76 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.715200227154142</v>
+        <v>0.7025373434639243</v>
       </c>
       <c r="B1" t="n">
-        <v>0.7139973477707496</v>
+        <v>0.694363355734701</v>
       </c>
       <c r="C1" t="n">
-        <v>0.7121046456070687</v>
+        <v>0.6820192187968485</v>
       </c>
       <c r="D1" t="n">
-        <v>0.7091385649763722</v>
+        <v>0.6638466911638289</v>
       </c>
       <c r="E1" t="n">
-        <v>0.7045194000849432</v>
+        <v>0.6380713534690523</v>
       </c>
       <c r="F1" t="n">
-        <v>0.697394974962379</v>
+        <v>0.6033669229745776</v>
       </c>
       <c r="G1" t="n">
-        <v>0.6865680397669188</v>
+        <v>0.5597374179055931</v>
       </c>
       <c r="H1" t="n">
-        <v>0.6704789114517773</v>
+        <v>0.5092772230318147</v>
       </c>
       <c r="I1" t="n">
-        <v>0.6473475596770412</v>
+        <v>0.4560152336112295</v>
       </c>
       <c r="J1" t="n">
-        <v>0.6156173851294404</v>
+        <v>0.4044977573959456</v>
       </c>
       <c r="K1" t="n">
-        <v>0.5747580346281305</v>
+        <v>0.35796992207928396</v>
       </c>
       <c r="L1" t="n">
-        <v>0.5261438993719435</v>
+        <v>0.31751124906446115</v>
       </c>
       <c r="M1" t="n">
-        <v>0.47327709976497756</v>
+        <v>0.28252501224621185</v>
       </c>
       <c r="N1" t="n">
-        <v>0.4207456664870232</v>
+        <v>0.2518456893386931</v>
       </c>
       <c r="O1" t="n">
-        <v>0.37237830194816757</v>
+        <v>0.22455655750422543</v>
       </c>
       <c r="P1" t="n">
-        <v>0.3299600796337955</v>
+        <v>0.20016612378697837</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.29332438380671766</v>
+        <v>0.1783959220099086</v>
       </c>
       <c r="R1" t="n">
-        <v>0.26137252014193163</v>
+        <v>0.1589932533608873</v>
       </c>
       <c r="S1" t="n">
-        <v>0.23305752221090617</v>
+        <v>0.1417031212569814</v>
       </c>
       <c r="T1" t="n">
-        <v>0.20776402159731588</v>
+        <v>0.12629330144076636</v>
       </c>
       <c r="U1" t="n">
-        <v>0.18517258292589275</v>
+        <v>0.11255913503973594</v>
       </c>
       <c r="V1" t="n">
-        <v>0.1650317688650614</v>
+        <v>0.10031851720353357</v>
       </c>
       <c r="W1" t="n">
-        <v>0.1470845275681348</v>
+        <v>0.08940903171704379</v>
       </c>
       <c r="X1" t="n">
-        <v>0.13108956541181457</v>
+        <v>0.07968592518690226</v>
       </c>
       <c r="Y1" t="n">
         <v>0.11683383450352794</v>
@@ -715,76 +715,76 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-3.149245272549473</v>
+        <v>-1.236501123936683</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.516373787041775</v>
+        <v>-1.0196615232410933</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.0173861561676345</v>
+        <v>-0.8550439543067887</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.625591695934429</v>
+        <v>-0.7321866276782568</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.3198983958942627</v>
+        <v>-0.641790414210239</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.0835945672931142</v>
+        <v>-0.5750205189841706</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.9032953154870397</v>
+        <v>-0.5233349737404074</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.767974832117776</v>
+        <v>-0.47916909623467463</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.6680483840130019</v>
+        <v>-0.43725362217758296</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.5945834873444136</v>
+        <v>-0.3955176341671627</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.5389132200868628</v>
+        <v>-0.3545848288432132</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.4930283510864892</v>
+        <v>-0.31614306394902664</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.45077051538714774</v>
+        <v>-0.28143137340726687</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.4090113699057502</v>
+        <v>-0.2506964424604214</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.3676479447416911</v>
+        <v>-0.2235118926906497</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.3282209021949351</v>
+        <v>-0.19932676925562962</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.2922272186276773</v>
+        <v>-0.17774002915776238</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.26023079384891723</v>
+        <v>-0.1584742213548555</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.23196031699389863</v>
+        <v>-0.14129013381153943</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.20685663030378684</v>
+        <v>-0.12596502056680456</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.1844628184835057</v>
+        <v>-0.11229827756456928</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.16447257766942575</v>
+        <v>-0.10011123168728518</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.1466398032824417</v>
+        <v>-0.0892443231926264</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.1307359244586933</v>
+        <v>-0.07955505312264852</v>
       </c>
       <c r="Y2" t="n">
         <v>-0.11655282191440604</v>
@@ -804,76 +804,76 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>154.48998511866566</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>194.49136813359092</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>244.85012571799192</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>308.2480453473766</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>388.0612974236932</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>488.5402286605017</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>615.0357085444388</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>774.284082647425</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>974.7659075925785</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>1227.157571618902</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>1544.8998511866564</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>1944.9136813359091</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>2448.5012571799193</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>3082.480453473766</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>3880.6129742369317</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>4885.402286605017</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>6150.357085444388</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>7742.84082647425</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>9747.659075925785</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>12271.57571618902</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>15448.998511866565</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>19449.13681335909</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>24485.01257179919</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
-        <v>30824.804534737657</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y3" t="n">
         <v>38806.12974236932</v>
@@ -906,76 +906,76 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.714609283465351</v>
+        <v>0.7020266934933445</v>
       </c>
       <c r="B1" t="n">
-        <v>0.7134148412690836</v>
+        <v>0.6938977991871321</v>
       </c>
       <c r="C1" t="n">
-        <v>0.711534985370794</v>
+        <v>0.6816157201231503</v>
       </c>
       <c r="D1" t="n">
-        <v>0.7085881378535884</v>
+        <v>0.6635249724822149</v>
       </c>
       <c r="E1" t="n">
-        <v>0.7039971792951686</v>
+        <v>0.6378503443600089</v>
       </c>
       <c r="F1" t="n">
-        <v>0.6969131357707993</v>
+        <v>0.6032572944165578</v>
       </c>
       <c r="G1" t="n">
-        <v>0.6861423842156539</v>
+        <v>0.5597319908169447</v>
       </c>
       <c r="H1" t="n">
-        <v>0.6701284927070771</v>
+        <v>0.5093463358884347</v>
       </c>
       <c r="I1" t="n">
-        <v>0.6470921847501944</v>
+        <v>0.4561150068909817</v>
       </c>
       <c r="J1" t="n">
-        <v>0.6154714385990969</v>
+        <v>0.4045889488437073</v>
       </c>
       <c r="K1" t="n">
-        <v>0.5747210572133149</v>
+        <v>0.35803307015981234</v>
       </c>
       <c r="L1" t="n">
-        <v>0.5261933225569283</v>
+        <v>0.3175471820148605</v>
       </c>
       <c r="M1" t="n">
-        <v>0.47337187866059094</v>
+        <v>0.28254425488306695</v>
       </c>
       <c r="N1" t="n">
-        <v>0.42084288467396935</v>
+        <v>0.2518576700567348</v>
       </c>
       <c r="O1" t="n">
-        <v>0.37245126500644105</v>
+        <v>0.22456551779587286</v>
       </c>
       <c r="P1" t="n">
-        <v>0.33000387908081774</v>
+        <v>0.2001729167367976</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.2933477879496383</v>
+        <v>0.17840078542168045</v>
       </c>
       <c r="R1" t="n">
-        <v>0.261386136483525</v>
+        <v>0.15899666571228085</v>
       </c>
       <c r="S1" t="n">
-        <v>0.23306727126048715</v>
+        <v>0.14170553420933185</v>
       </c>
       <c r="T1" t="n">
-        <v>0.20777149783749455</v>
+        <v>0.1262950123486425</v>
       </c>
       <c r="U1" t="n">
-        <v>0.18517802765832447</v>
+        <v>0.11256034695658469</v>
       </c>
       <c r="V1" t="n">
-        <v>0.16503559422271966</v>
+        <v>0.10031937558607573</v>
       </c>
       <c r="W1" t="n">
-        <v>0.14708722496659035</v>
+        <v>0.0894096396832123</v>
       </c>
       <c r="X1" t="n">
-        <v>0.13109147801746115</v>
+        <v>0.07968635576739774</v>
       </c>
       <c r="Y1" t="n">
         <v>0.11683518961414706</v>
@@ -995,76 +995,76 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-3.1491394457864477</v>
+        <v>-1.2362457734407173</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.516242187533872</v>
+        <v>-1.0193599488981642</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.017223531539628</v>
+        <v>-0.854697070772597</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.6253925246269616</v>
+        <v>-0.7318024549805097</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.3196574842398174</v>
+        <v>-0.6413877227682298</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.0833081024148807</v>
+        <v>-0.5746303547291122</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.9029626416733675</v>
+        <v>-0.5229956300541733</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.76760126404918</v>
+        <v>-0.47891251057172796</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.667648862053284</v>
+        <v>-0.4370899403677796</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.5941852244447574</v>
+        <v>-0.3954310165293486</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.5385532720189425</v>
+        <v>-0.35454522242633935</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.492742565612978</v>
+        <v>-0.31612342543281824</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.4505773403011823</v>
+        <v>-0.28141712767259924</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.4089027699560005</v>
+        <v>-0.25068398503161654</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.36759652652688996</v>
+        <v>-0.22350196274527703</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.3281970564123332</v>
+        <v>-0.1993197188224692</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.2922120309601559</v>
+        <v>-0.17773517037956613</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.26021775075389153</v>
+        <v>-0.15847080117373386</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.23194946478399248</v>
+        <v>-0.1412877048593345</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.20684869146878865</v>
+        <v>-0.12596330040644824</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.18445734589648416</v>
+        <v>-0.11229706004002052</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.16446875390100293</v>
+        <v>-0.10011036972818504</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.14663708913236742</v>
+        <v>-0.0892437129720395</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.13073400059280138</v>
+        <v>-0.0795546211196504</v>
       </c>
       <c r="Y2" t="n">
         <v>-0.11655146030936288</v>
@@ -1084,76 +1084,76 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>154.48998511866566</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>194.49136813359092</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>244.85012571799192</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>308.2480453473766</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>388.0612974236932</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>488.5402286605017</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>615.0357085444388</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>774.284082647425</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>974.7659075925785</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>1227.157571618902</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>1544.8998511866564</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>1944.9136813359091</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>2448.5012571799193</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>3082.480453473766</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>3880.6129742369317</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>4885.402286605017</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>6150.357085444388</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>7742.84082647425</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>9747.659075925785</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>12271.57571618902</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>15448.998511866565</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>19449.13681335909</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>24485.01257179919</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
-        <v>30824.804534737657</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y3" t="n">
         <v>38806.12974236932</v>

--- a/lin_R1_by_R2 (1.1 by 1)100.xlsx
+++ b/lin_R1_by_R2 (1.1 by 1)100.xlsx
@@ -244,76 +244,76 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>418.0963270526692</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>526.3520907044104</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>662.6380225387708</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>834.2118453950947</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>1050.2104909875916</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>1322.1366748371083</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>1664.4714578174776</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>2095.4454154525056</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>2638.0094825407455</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>3321.0571741245262</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>4180.963270526692</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>5263.520907044104</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>6626.3802253877075</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>8342.118453950947</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>10502.104909875916</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>13221.366748371083</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>16644.714578174775</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>20954.454154525058</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>26380.094825407457</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>33210.571741245265</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>41809.63270526692</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>52635.209070441044</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>66263.80225387707</v>
       </c>
       <c r="X3" t="n">
-        <v>#NUM!</v>
+        <v>83421.18453950946</v>
       </c>
       <c r="Y3" t="n">
         <v>38806.12974236932</v>
@@ -524,76 +524,76 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>418.0963270526692</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>526.3520907044104</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>662.6380225387708</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>834.2118453950947</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>1050.2104909875916</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>1322.1366748371083</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>1664.4714578174776</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>2095.4454154525056</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>2638.0094825407455</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>3321.0571741245262</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>4180.963270526692</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>5263.520907044104</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>6626.3802253877075</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>8342.118453950947</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>10502.104909875916</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>13221.366748371083</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>16644.714578174775</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>20954.454154525058</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>26380.094825407457</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>33210.571741245265</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>41809.63270526692</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>52635.209070441044</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>66263.80225387707</v>
       </c>
       <c r="X3" t="n">
-        <v>#NUM!</v>
+        <v>83421.18453950946</v>
       </c>
       <c r="Y3" t="n">
         <v>38806.12974236932</v>
@@ -804,76 +804,76 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>418.0963270526692</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>526.3520907044104</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>662.6380225387708</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>834.2118453950947</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>1050.2104909875916</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>1322.1366748371083</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>1664.4714578174776</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>2095.4454154525056</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>2638.0094825407455</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>3321.0571741245262</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>4180.963270526692</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>5263.520907044104</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>6626.3802253877075</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>8342.118453950947</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>10502.104909875916</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>13221.366748371083</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>16644.714578174775</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>20954.454154525058</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>26380.094825407457</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>33210.571741245265</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>41809.63270526692</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>52635.209070441044</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>66263.80225387707</v>
       </c>
       <c r="X3" t="n">
-        <v>#NUM!</v>
+        <v>83421.18453950946</v>
       </c>
       <c r="Y3" t="n">
         <v>38806.12974236932</v>
@@ -1084,76 +1084,76 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>418.0963270526692</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>526.3520907044104</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>662.6380225387708</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>834.2118453950947</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>1050.2104909875916</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>1322.1366748371083</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>1664.4714578174776</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>2095.4454154525056</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>2638.0094825407455</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>3321.0571741245262</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>4180.963270526692</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>5263.520907044104</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>6626.3802253877075</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>8342.118453950947</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>10502.104909875916</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>13221.366748371083</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>16644.714578174775</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>20954.454154525058</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>26380.094825407457</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>33210.571741245265</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>41809.63270526692</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>52635.209070441044</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>66263.80225387707</v>
       </c>
       <c r="X3" t="n">
-        <v>#NUM!</v>
+        <v>83421.18453950946</v>
       </c>
       <c r="Y3" t="n">
         <v>38806.12974236932</v>
